--- a/PovertyandGroceryStoreAccess.xlsx
+++ b/PovertyandGroceryStoreAccess.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhoffmann/Desktop/Food-Deserts-Ward-8-DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lknro\Documents\GitHub\Food-Deserts-Ward-8-DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC951E39-0204-1D45-B9E4-24847FCA4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FECF5-8DA1-4063-8C0E-B1C996C97E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{9E86DD42-0CC3-9F45-84F2-C60CD6C1D439}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9E86DD42-0CC3-9F45-84F2-C60CD6C1D439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -538,12 +538,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -599,7 +599,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -627,7 +627,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -641,7 +641,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.2326</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.2661</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
